--- a/biology/Histoire de la zoologie et de la botanique/Giuseppe_Olivi_(1769-1795)/Giuseppe_Olivi_(1769-1795).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giuseppe_Olivi_(1769-1795)/Giuseppe_Olivi_(1769-1795).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Olivi (né le 18 mars 1769 à Chioggia, dans la province de Venise, en Vénétie – mort le 24 août 1795 à Padoue) était un naturaliste italien issu de la famille Olivi di Briana. Il a été membre de l'Académie de Padoue et de l'Accademia dei Quaranta.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève à Chioggia de Francesco et Giuseppe Fabris, Giuseppe Olivi vêtit, sans toutefois faire les vœux, l'habit ecclésiastique[1]. Il s'intéressa à divers sujets comme la chimie en promouvant la théorie de Lavoisier, la botanique, la minéralogie ainsi qu'à l'agronomie[1]. Fermement fidèle aux théories d'Albrecht von Haller (1708-1777), il prend part à plusieurs débats à ce sujet, dont sur l'électricité chez les animaux[1].
-Il obtient le respect de ses contemporains avec la publication d'un catalogue raisonné sur les animaux marins de la lagune de Venise, Zoologia Adriatica, ossia Catalogo ragionato degli animali del golfo e delle lagune di Venezia en 1792[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève à Chioggia de Francesco et Giuseppe Fabris, Giuseppe Olivi vêtit, sans toutefois faire les vœux, l'habit ecclésiastique. Il s'intéressa à divers sujets comme la chimie en promouvant la théorie de Lavoisier, la botanique, la minéralogie ainsi qu'à l'agronomie. Fermement fidèle aux théories d'Albrecht von Haller (1708-1777), il prend part à plusieurs débats à ce sujet, dont sur l'électricité chez les animaux.
+Il obtient le respect de ses contemporains avec la publication d'un catalogue raisonné sur les animaux marins de la lagune de Venise, Zoologia Adriatica, ossia Catalogo ragionato degli animali del golfo e delle lagune di Venezia en 1792.
 Mort en 1795 à Padoue, il est enterré dans l'église de Santa Cristina de Padoue ; un buste funéraire commémoratif est placé dans le cloître de la basilique Saint Antoine de Padoue.
-Gregor Mendel (1822-1884), dans l'introduction à sa célèbre œuvre Versuche über Pflanzen-Hybriden (1866) cite Olivi comme un de ses inspirateurs pour la biogénétique[3].
-En 1995, pour le bicentenaire de sa mort, sa ville de naissance lui a dédicacé les « giornate oliviane » (« journées oliviennes »), un congrès européen avec production d'une monographie qui lui est consacrée[4] et une pierre tombale commémorative.
+Gregor Mendel (1822-1884), dans l'introduction à sa célèbre œuvre Versuche über Pflanzen-Hybriden (1866) cite Olivi comme un de ses inspirateurs pour la biogénétique.
+En 1995, pour le bicentenaire de sa mort, sa ville de naissance lui a dédicacé les « giornate oliviane » (« journées oliviennes »), un congrès européen avec production d'une monographie qui lui est consacrée et une pierre tombale commémorative.
 </t>
         </is>
       </c>
